--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2158858.401079605</v>
+        <v>2156601.379170522</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>328.4378163475058</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.764863467406604</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>50.43151777216858</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>98.0920354687541</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>150.8400357509149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>27.31641521011703</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>35.12287234938842</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534541</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.0743711067585</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>35.01474696300851</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,10 +1819,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>104.0438938896184</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968136</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1898,7 +1898,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>114.474660549156</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>207.202993542907</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>87.05433370913478</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>133.2205257453335</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>35.19569619650092</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.17970120049755</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,10 +2530,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>131.5730391207949</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>13.89072837997124</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.6898441249708</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3007,16 +3007,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>164.1383718421532</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3190,13 +3190,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>90.41948680756543</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>115.9112437681534</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.775724893532</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>147.559217729807</v>
       </c>
       <c r="E37" t="n">
-        <v>35.00072487461262</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345258</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164202</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430365</v>
+        <v>188.7127700430366</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877638</v>
+        <v>218.4926939877639</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172074</v>
+        <v>285.1555829172075</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354226</v>
+        <v>16.23606563957807</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481855</v>
+        <v>285.4667430481857</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006317</v>
+        <v>224.6534001006318</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636894</v>
+        <v>217.5283980636895</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433891</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.7798782957277</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3755,7 +3755,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433943</v>
+        <v>98.44591140433977</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>539.1643278732605</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.80648027229032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>63.80648027229032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>63.80648027229032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>63.80648027229032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>63.80648027229032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>245.45494510253</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>245.45494510253</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>905.1298747452308</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>898.1843739960274</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>480.2205658942142</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>153.0258459302171</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>819.715945170047</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>408.7300403804394</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2099.402377681549</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1746.633722411435</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5039,22 +5039,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P11" t="n">
         <v>4470.748294107237</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.6776738607302</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C13" t="n">
-        <v>245.6776738607302</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E13" t="n">
         <v>95.56103444839442</v>
@@ -5200,19 +5200,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208125</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838518</v>
+        <v>873.9047229025747</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858345</v>
+        <v>645.9151720045573</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9043113423044</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,46 +5276,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1682.725100522032</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5358,10 +5358,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5434,13 +5434,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1437.79612418831</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1183.111635982423</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>893.6944659454626</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>665.7049150474453</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>444.9123359039152</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,13 +5546,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>561.5038042865474</v>
+        <v>211.1920047000672</v>
       </c>
       <c r="C19" t="n">
-        <v>392.5676213586405</v>
+        <v>211.1920047000672</v>
       </c>
       <c r="D19" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5674,13 +5674,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="U19" t="n">
-        <v>1333.595013427412</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V19" t="n">
-        <v>1078.910525221525</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W19" t="n">
-        <v>789.4933551845647</v>
+        <v>841.6225995718544</v>
       </c>
       <c r="X19" t="n">
-        <v>561.5038042865474</v>
+        <v>613.633048673837</v>
       </c>
       <c r="Y19" t="n">
-        <v>561.5038042865474</v>
+        <v>392.8404695303069</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5756,16 +5756,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1296.118160724479</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107237</v>
@@ -5777,25 +5777,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,16 +5859,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>411.3871648742117</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5914,10 +5914,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
@@ -5941,19 +5941,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1365.126838845316</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1110.442350639429</v>
+        <v>909.273154178341</v>
       </c>
       <c r="W22" t="n">
-        <v>821.0251806024687</v>
+        <v>619.8559841413805</v>
       </c>
       <c r="X22" t="n">
-        <v>593.0356297044514</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y22" t="n">
-        <v>593.0356297044514</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,10 +5972,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5990,49 +5990,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2782.232616025903</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3329.011433084685</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>300.0484256555952</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C25" t="n">
-        <v>131.1122427276883</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D25" t="n">
-        <v>131.1122427276883</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E25" t="n">
-        <v>131.1122427276883</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1911.71750529612</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1720.031621122946</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208127</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838523</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X25" t="n">
-        <v>481.696890485835</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y25" t="n">
-        <v>481.696890485835</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>750.1800661608916</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1614.698881814246</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2593.249184644075</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N26" t="n">
-        <v>3573.001456870722</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6315,28 +6315,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>673.3827746590084</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C28" t="n">
-        <v>540.4807149410337</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6388,10 +6388,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570256</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X28" t="n">
-        <v>673.3827746590083</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y28" t="n">
-        <v>673.3827746590084</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2368.748013620956</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6540,13 +6540,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839459</v>
+        <v>708.7441371531722</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>539.8079542252653</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>389.6913148129296</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305365</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305365</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305365</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6622,10 +6622,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W31" t="n">
-        <v>709.686441383852</v>
+        <v>874.5404723472664</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858346</v>
+        <v>708.7441371531722</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423045</v>
+        <v>708.7441371531722</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6701,25 +6701,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>888.4135721382786</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>481.6968904858347</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C34" t="n">
-        <v>481.6968904858347</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839442</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1749.430944449955</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1527.664329019482</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1238.561462145125</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>983.8769739392382</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>694.4598039022776</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>466.4702530042603</v>
       </c>
       <c r="Y34" t="n">
-        <v>481.6968904858347</v>
+        <v>245.6776738607302</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6947,13 +6947,13 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3950.852187039507</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468568</v>
@@ -7014,16 +7014,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008795</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,7 +7044,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7053,13 +7053,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>276.7383249626755</v>
+        <v>244.6107493269872</v>
       </c>
       <c r="C37" t="n">
-        <v>276.7383249626755</v>
+        <v>244.6107493269872</v>
       </c>
       <c r="D37" t="n">
-        <v>276.7383249626755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>241.3840574125619</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
         <v>95.56103444839442</v>
@@ -7093,22 +7093,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308514</v>
+        <v>141.7293596308513</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152491</v>
+        <v>346.7622353152489</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992667</v>
+        <v>664.3677264992663</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834337</v>
+        <v>1009.570464834336</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275723</v>
+        <v>1352.024534275722</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931658</v>
+        <v>1652.399825931657</v>
       </c>
       <c r="P37" t="n">
         <v>1886.053019100838</v>
@@ -7117,28 +7117,28 @@
         <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988874</v>
+        <v>1875.945475280144</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349444</v>
+        <v>1685.326515640713</v>
       </c>
       <c r="T37" t="n">
-        <v>1553.390357452713</v>
+        <v>1464.626824743982</v>
       </c>
       <c r="U37" t="n">
-        <v>1265.354415112099</v>
+        <v>1176.590882403368</v>
       </c>
       <c r="V37" t="n">
-        <v>1011.736851439955</v>
+        <v>1160.190816100764</v>
       </c>
       <c r="W37" t="n">
-        <v>723.3866059367373</v>
+        <v>871.8405705975462</v>
       </c>
       <c r="X37" t="n">
-        <v>496.4639795724628</v>
+        <v>644.9179442332716</v>
       </c>
       <c r="Y37" t="n">
-        <v>276.7383249626755</v>
+        <v>425.1922896234842</v>
       </c>
     </row>
     <row r="38">
@@ -7151,13 +7151,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7178,22 +7178,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1237.706702364128</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>1941.005908766399</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
         <v>794.200663232024</v>
@@ -7263,37 +7263,37 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y39" t="n">
         <v>1138.808109517387</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430897</v>
+        <v>463.898150743089</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.457836193252</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160442</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,52 +7409,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L42" t="n">
         <v>794.2006632320242</v>
@@ -7506,22 +7506,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215058</v>
+        <v>788.5151678215063</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416721</v>
+        <v>667.0286178416727</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774098</v>
+        <v>564.3616113774103</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430901</v>
+        <v>463.8981507430905</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932524</v>
@@ -7567,13 +7567,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
         <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7594,7 +7594,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7603,16 +7603,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849074</v>
       </c>
       <c r="X43" t="n">
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036721</v>
+        <v>922.7139997036727</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7661,7 +7661,7 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P44" t="n">
         <v>4195.497197679678</v>
@@ -7701,64 +7701,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215051</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416715</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E46" t="n">
         <v>463.8981507430893</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7828,28 +7828,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036714</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8699,13 +8699,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>79.70465870845339</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>216.9877583263337</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>73.34731650832759</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277306</v>
+        <v>229.1155640189938</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,10 +9413,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,19 +9647,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>246.454569480844</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>67.53663776704269</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>160.3329896347532</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,13 +10118,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>64.28566532692594</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>272.8828616575882</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,16 +10361,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,16 +10595,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>60.66917680434136</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10826,10 +10826,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>341.5962138876764</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>85.51392558917598</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11309,10 +11309,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>164.7576090751788</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>251.5082513735825</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>182.1679443159945</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>105.0742887270144</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>34.14081246905634</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>79.00884466270588</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>199.1575044964781</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>92.48912964370362</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>110.2253518264303</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>44.75245146954977</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>35.6737819778329</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>272.3211098256417</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696651</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>61.57128354688398</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,13 +25078,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>58.19598621064692</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>73.8577815632885</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935319</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102224</v>
+        <v>166.1905658102225</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298069</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>110.3769824835511</v>
+        <v>145.3777073581639</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345259</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706228</v>
+        <v>164.9695529706229</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259154</v>
+        <v>143.6987596259155</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143267</v>
+        <v>95.29616512143278</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164191</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>234.8453223958446</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>5.258016244624741e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-7.602807272633072e-13</v>
+        <v>-9.399148254162333e-13</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>851227.3308521745</v>
+        <v>851227.3308521747</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>851227.3308521745</v>
+        <v>851227.3308521747</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
         <v>555914.5016417763</v>
       </c>
       <c r="F2" t="n">
+        <v>555914.5016417763</v>
+      </c>
+      <c r="G2" t="n">
+        <v>555914.5016417766</v>
+      </c>
+      <c r="H2" t="n">
+        <v>555914.5016417762</v>
+      </c>
+      <c r="I2" t="n">
+        <v>555914.5016417763</v>
+      </c>
+      <c r="J2" t="n">
         <v>555914.5016417764</v>
-      </c>
-      <c r="G2" t="n">
-        <v>555914.5016417763</v>
-      </c>
-      <c r="H2" t="n">
-        <v>555914.5016417764</v>
-      </c>
-      <c r="I2" t="n">
-        <v>555914.5016417765</v>
-      </c>
-      <c r="J2" t="n">
-        <v>555914.5016417763</v>
       </c>
       <c r="K2" t="n">
         <v>555914.5016417763</v>
       </c>
       <c r="L2" t="n">
-        <v>555914.5016417764</v>
+        <v>555914.5016417763</v>
       </c>
       <c r="M2" t="n">
-        <v>556337.558755917</v>
+        <v>556337.5587559172</v>
       </c>
       <c r="N2" t="n">
+        <v>574729.2389049989</v>
+      </c>
+      <c r="O2" t="n">
         <v>574729.238904999</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>574729.2389049989</v>
-      </c>
-      <c r="P2" t="n">
-        <v>574729.2389049988</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696691</v>
+        <v>130487.319069669</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414972</v>
+        <v>36735.10506414963</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,28 +26418,28 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="G4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="F4" t="n">
-        <v>18148.49231918989</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18148.49231918991</v>
-      </c>
       <c r="H4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="I4" t="n">
-        <v>18148.49231918993</v>
-      </c>
       <c r="J4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
@@ -26448,13 +26448,13 @@
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811453</v>
+        <v>18496.05294811449</v>
       </c>
       <c r="N4" t="n">
         <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740901</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26494,7 +26494,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281446.405230083</v>
+        <v>-281446.4052300831</v>
       </c>
       <c r="C6" t="n">
-        <v>308521.4739844615</v>
+        <v>308521.4739844613</v>
       </c>
       <c r="D6" t="n">
-        <v>308521.4739844615</v>
+        <v>308521.4739844613</v>
       </c>
       <c r="E6" t="n">
-        <v>-285994.922924534</v>
+        <v>-286062.1184147596</v>
       </c>
       <c r="F6" t="n">
-        <v>441382.4910688728</v>
+        <v>441315.2955786469</v>
       </c>
       <c r="G6" t="n">
-        <v>441382.4910688727</v>
+        <v>441315.2955786472</v>
       </c>
       <c r="H6" t="n">
-        <v>441382.4910688728</v>
+        <v>441315.2955786468</v>
       </c>
       <c r="I6" t="n">
-        <v>441382.4910688729</v>
+        <v>441315.2955786469</v>
       </c>
       <c r="J6" t="n">
-        <v>264959.2718762798</v>
+        <v>264892.076386054</v>
       </c>
       <c r="K6" t="n">
-        <v>441382.4910688727</v>
+        <v>441315.2955786469</v>
       </c>
       <c r="L6" t="n">
-        <v>441382.4910688728</v>
+        <v>441315.2955786468</v>
       </c>
       <c r="M6" t="n">
-        <v>310881.8701585787</v>
+        <v>310816.1855866181</v>
       </c>
       <c r="N6" t="n">
         <v>404055.8095293382</v>
@@ -26561,7 +26561,7 @@
         <v>440790.9145934878</v>
       </c>
       <c r="P6" t="n">
-        <v>440790.9145934877</v>
+        <v>440790.9145934878</v>
       </c>
     </row>
   </sheetData>
@@ -26716,13 +26716,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859258</v>
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018715</v>
+        <v>45.91888133018723</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>85.34635367328917</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>157.5449387916443</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27585,22 +27585,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>235.8503564698092</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>53.83928077610715</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>218.8910649275542</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067504</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>386.4677548106779</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>181.3254480082694</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.513365691514747e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29986,19 +29986,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>-3.979039320256561e-13</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.056255288405317</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32555,7 +32555,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
@@ -35419,13 +35419,13 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>587.7576595966725</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
@@ -35571,7 +35571,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35586,7 +35586,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>769.2895937392452</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
@@ -35823,7 +35823,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>625.6491519212391</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35905,7 +35905,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200628</v>
+        <v>684.7056784113259</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36133,10 +36133,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36203,7 +36203,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36358,7 +36358,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
@@ -36367,19 +36367,19 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>754.5075703690632</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>466.2986239864146</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>470.444344195426</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>712.6348250476647</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
@@ -36771,7 +36771,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>616.5875007398372</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>610.0741482129887</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37081,16 +37081,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
@@ -37315,16 +37315,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>459.4311630237132</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147168</v>
+        <v>46.63467190147154</v>
       </c>
       <c r="K37" t="n">
-        <v>207.103914832725</v>
+        <v>207.1039148327249</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586037</v>
+        <v>320.8136274586034</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818893</v>
+        <v>348.6896346818892</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559455</v>
+        <v>345.9132014559454</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110452</v>
+        <v>303.4093855110451</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335159</v>
+        <v>236.0133264335157</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629908</v>
+        <v>79.45049382629897</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>880.517329717903</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>624.4350414194028</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37801,7 +37801,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165884</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38029,10 +38029,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
